--- a/cleaned_data/02-25_AUDIT.xlsx
+++ b/cleaned_data/02-25_AUDIT.xlsx
@@ -731,7 +731,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43643</v>
+        <v>44976</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -740,62 +740,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NEWMARKET</t>
+          <t>NEWBURY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>GTF</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Other Handicap</t>
+          <t>Handicap Chase</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1m4f</t>
+          <t>2m6½f</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Sea Battle</t>
+          <t>Dalamoi</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8-6</t>
+          <t>11-3</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Alan Johns</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Jane Chapple-Hyam</t>
+          <t>Tim Vaughan</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -803,26 +801,16 @@
         <v>1</v>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>40.69</v>
-      </c>
-      <c r="U2" t="n">
-        <v>36.18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>581.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="X2" t="n">
-        <v>52.58</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>2.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -830,52 +818,86 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>167</v>
+      </c>
+      <c r="AP2" t="n">
         <v>2</v>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr">
         <is>
